--- a/biology/Botanique/Ellipanthus/Ellipanthus.xlsx
+++ b/biology/Botanique/Ellipanthus/Ellipanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ellipanthus est un genre de plantes de la famille des Connaraceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Ellipanthus du grec ancien ἐλλείπω, elleípô , « laisser de côté, négliger, défectif », et ἄνθος, ánthos, « fleur », doit son nom du fait du développement incomplet de certaines étamines.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Ellipanthus se rencontrent à l'état naturel en Afrique, à Madagascar, au Sri Lanka, dans le Sud-Est asiatique et en Malaisie.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (5 août 2018)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (5 août 2018) :
 Ellipanthus beccarii Pierre
 Ellipanthus calophyllus Kurz
 Ellipanthus glabrifolius Merr.
@@ -610,9 +628,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(la) Hooker, 1862 :  Genera plantarum :ad exemplaria imprimis in Herberiis Kewensibus servata definita. vol. 1, p. 1-152[1] (texte intégral).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(la) Hooker, 1862 :  Genera plantarum :ad exemplaria imprimis in Herberiis Kewensibus servata definita. vol. 1, p. 1-152 (texte intégral).</t>
         </is>
       </c>
     </row>
